--- a/templates/OTC_data.xlsx
+++ b/templates/OTC_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodga\Documents\GitHub\UTHECA_OTC_Classifier\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57054A99-21F3-47DC-9906-4C4C552E23E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E1D011-79D7-485A-BB0D-BC96958635EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{483ACBA5-F52B-4092-A2FD-2F9C631056C7}"/>
   </bookViews>
@@ -98,8 +98,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#.##"/>
-    <numFmt numFmtId="169" formatCode="#.####"/>
+    <numFmt numFmtId="164" formatCode="#.##"/>
+    <numFmt numFmtId="165" formatCode="#.####"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -140,8 +140,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -149,28 +149,28 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="167" formatCode="#.##"/>
+      <numFmt numFmtId="164" formatCode="#.##"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#.##"/>
+      <numFmt numFmtId="164" formatCode="#.##"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#.##"/>
+      <numFmt numFmtId="164" formatCode="#.##"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#.##"/>
+      <numFmt numFmtId="164" formatCode="#.##"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#.##"/>
+      <numFmt numFmtId="164" formatCode="#.##"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#.##"/>
+      <numFmt numFmtId="164" formatCode="#.##"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#.##"/>
+      <numFmt numFmtId="164" formatCode="#.##"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#.##"/>
+      <numFmt numFmtId="164" formatCode="#.##"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -186,15 +186,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EF65809-E016-4A93-BE42-8D5E22DA7BEE}" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EF65809-E016-4A93-BE42-8D5E22DA7BEE}" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="A1:G19" xr:uid="{9EF65809-E016-4A93-BE42-8D5E22DA7BEE}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F4431190-0A2B-4020-8A1B-FBA652B6F75F}" name="Longitude" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{8FB8635C-A5E7-4426-8975-C32E059439E8}" name="Latitude" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{672ACC46-121E-4E2A-8EF3-F88FA5367487}" name="Air_temperature" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A6350C4B-A380-4250-B704-CFF43AD06192}" name="Relative_humidity" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{558B4134-E673-4166-B71F-E5C7E71FEF51}" name="Wind_speed" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5EB69930-6221-4AD4-A83A-1D2A27A306CD}" name="Solar_radiation" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F4431190-0A2B-4020-8A1B-FBA652B6F75F}" name="Longitude" dataDxfId="6">
+      <calculatedColumnFormula>-5.9823 + RAND()/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{8FB8635C-A5E7-4426-8975-C32E059439E8}" name="Latitude" dataDxfId="5">
+      <calculatedColumnFormula>37.3886+RAND()/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{672ACC46-121E-4E2A-8EF3-F88FA5367487}" name="Air_temperature" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A6350C4B-A380-4250-B704-CFF43AD06192}" name="Relative_humidity" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{558B4134-E673-4166-B71F-E5C7E71FEF51}" name="Wind_speed" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5EB69930-6221-4AD4-A83A-1D2A27A306CD}" name="Solar_radiation" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{2017F165-DEF5-406D-AF28-3323AA498CF0}" name="Class" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -521,7 +525,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+      <selection activeCell="B2" sqref="A2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,10 +564,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>-58.381599999999999</v>
+        <f ca="1">-5.9823 + RAND()/100</f>
+        <v>-5.9787367282766981</v>
       </c>
       <c r="B2" s="1">
-        <v>-34.619999999999997</v>
+        <f ca="1">37.3886+RAND()/100</f>
+        <v>37.394151087977434</v>
       </c>
       <c r="C2" s="2">
         <v>28.52</v>
@@ -583,28 +589,28 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f ca="1">A2+RAND()</f>
-        <v>-58.305340635037986</v>
+        <f t="shared" ref="A3:A19" ca="1" si="0">-5.9823 + RAND()/100</f>
+        <v>-5.9748865606222701</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:F18" ca="1" si="0">B2+RAND()</f>
-        <v>-34.484444994027221</v>
+        <f t="shared" ref="B3:B19" ca="1" si="1">37.3886+RAND()/100</f>
+        <v>37.396177218490571</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>29.512100864524868</v>
+        <f t="shared" ref="B3:F18" ca="1" si="2">C2+RAND()</f>
+        <v>29.310593527841288</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>66.372483827560686</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>65.899785782594606</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1539393563468217</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1518011669576298</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>580.25906150096944</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>581.09955210124997</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -612,28 +618,28 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A19" ca="1" si="1">A3+RAND()</f>
-        <v>-57.795634344240355</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9774868532733967</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-34.421289233543341</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.391656395558918</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>29.802786727908483</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>29.818568692516763</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>66.672439454710201</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>66.890495437727466</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.3259176150511593</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.4423660671473613</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>581.20728338170773</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>581.51943634272152</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
@@ -641,28 +647,28 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-57.787091863243781</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9797157970553245</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-33.735177074419447</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.390204302474018</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>29.892707437079565</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.740433767096633</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>66.900603944906678</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>66.943627705127071</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.7153480279864337</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.8444909784107439</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>581.54304878389917</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>582.3789277289676</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -670,28 +676,28 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-57.541965350602744</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.974722447953698</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-33.149270664621795</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.397588371085355</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.766540621949851</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>31.454195451030866</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>67.10900009724935</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>67.925251125477658</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.4352337776551476</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8214303158413276</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>581.74856390723994</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>583.23829649772256</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -699,28 +705,28 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-57.358051688126672</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9804820147340294</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-33.028449529853837</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.394581856011527</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.852381969474568</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.037555997568042</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>67.456025083978602</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>68.006062287229838</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.4722078186694274</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.7793068034026076</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>582.06388387571405</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>584.20581301012658</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -728,28 +734,28 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-57.207488826402347</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9810220831398295</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-32.775590815548469</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.393338527266344</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.626452811157499</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.759415428376379</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>67.520490577769749</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>68.511260932035711</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8553915193896069</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5922621065085076</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>582.53652122257415</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>584.98878145441972</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
@@ -757,28 +763,28 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-56.680484365637646</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9767912714049762</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-32.718205838285385</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.393218724661452</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.694152939760524</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.952559562269734</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>68.078735514388256</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>69.089942818755958</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8685779538426504</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.4667091168432833</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>582.77179917898877</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>585.37882719389825</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -786,28 +792,28 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-56.477073235571936</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9773584469920422</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-32.390638059139064</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.395439058850776</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.944331309862072</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>33.91931207235352</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>68.177126898267957</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>69.830265507752586</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6629553007011459</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.7204311726735426</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>583.41447317734912</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>586.00139950727919</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
@@ -815,28 +821,28 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-56.388617608979693</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9772134388707601</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-32.19925453534514</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.389238929145804</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.038170779300444</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>33.983651687959728</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>68.328305706307503</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>70.228209501039558</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7139670097207382</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.2570229246390134</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>584.18975621214963</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>586.15927266435267</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
@@ -844,28 +850,28 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-56.208749881215589</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9785703385840847</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-31.52787719194659</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.389611074338355</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.449484480004216</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>34.913069133494645</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>68.379516264943945</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>71.029989953872388</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3254583377159896</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.7345813542453605</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>584.86922216056053</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>586.48679100860295</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -873,28 +879,28 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-56.162106857739893</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9799864033810195</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-30.74962216934513</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.390419030853728</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.720666090514662</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>35.144580151732868</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>68.583702157292677</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>71.526443050503531</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5147753280461291</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8.8115580070508717</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>585.45962459601901</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>587.13388500585677</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
@@ -902,28 +908,28 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-55.607185703444792</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.974797645006011</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-30.581272054843829</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.395578349539647</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.740864979647085</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>35.982989492739499</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>69.581204581227709</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>71.846688045817771</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0748445480389606</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.4668749631506639</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>585.82152418278122</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>587.707598307083</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
@@ -931,28 +937,28 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-54.702360173567406</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9805565507540459</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-30.293783802016179</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.393599169790797</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>33.565018018039126</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>36.29613364091108</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>70.405943848182048</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>72.04092385044008</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1689098563720943</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5182750686383191</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>586.77159031309179</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>588.1160335745725</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>15</v>
@@ -960,28 +966,28 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-54.086853826178668</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9820389125485711</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-29.438123338162374</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.393756556869576</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.152691408784634</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>36.675345174906546</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>71.049661452986584</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>72.185457451170777</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4392740273259443</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.567639041240545</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>587.17874532743554</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>588.5495148326246</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>16</v>
@@ -989,28 +995,28 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-54.038429752444124</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9793509024282567</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-28.917266193019572</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.388665677523981</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.704838870341575</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>37.026539455297915</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>71.486350655811648</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>73.038919549760479</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3195927450761697</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10.171169607234646</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>587.5627255794376</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>589.53190868796582</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>17</v>
@@ -1018,28 +1024,28 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-53.986388582507487</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9756827974690054</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>-28.53937495978829</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.388863716684419</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.802733942082277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>37.40521690990424</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>72.470523425735976</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>73.173509017871766</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.411013003356393</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10.39658445377353</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>588.04319739041364</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>590.51285380640115</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -1047,28 +1053,28 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>-53.855079207730967</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9817474517773199</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ref="B19" ca="1" si="2">B18+RAND()</f>
-        <v>-27.866654770395989</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.396504558377742</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ref="C19" ca="1" si="3">C18+RAND()</f>
-        <v>35.322109811488836</v>
+        <v>37.843224411330141</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ref="D19" ca="1" si="4">D18+RAND()</f>
-        <v>73.231840932167174</v>
+        <v>73.674210437031263</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ref="E19" ca="1" si="5">E18+RAND()</f>
-        <v>9.0707741543091149</v>
+        <v>10.798613636478288</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ref="F19" ca="1" si="6">F18+RAND()</f>
-        <v>588.837429108116</v>
+        <v>591.01722657292032</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>14</v>
